--- a/excel/src/logic_in_excel_final.xlsx
+++ b/excel/src/logic_in_excel_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish-my.sharepoint.com/personal/brendan_clarke2_nes_scot_nhs_uk/Documents/projects/KIND resources/excel_logic/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="839" documentId="8_{9C7E987C-823A-4F68-A3BC-5308E1730B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830C55A2-29D1-4E50-8FDB-A7B684FDDD72}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="8_{9C7E987C-823A-4F68-A3BC-5308E1730B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9672CE38-28BF-4B87-9C29-0C384FAAFBDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{462B433E-3A6E-446E-BD28-09DA4E5466BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" activeTab="7" xr2:uid="{462B433E-3A6E-446E-BD28-09DA4E5466BF}"/>
   </bookViews>
   <sheets>
     <sheet name="NOT" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="Cutoff">IF!$F$9</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>P</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>160</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>COUNTIF()</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>noel</t>
+  </si>
+  <si>
+    <t>grows</t>
+  </si>
+  <si>
+    <t>IF(COUNTIF)</t>
+  </si>
+  <si>
+    <t>IF()</t>
   </si>
 </sst>
 </file>
@@ -769,6 +793,25 @@
 </table>
 </file>
 
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E77F1C2E-B24D-43B7-BE1A-BB92DDEC223D}" name="wildcardex" displayName="wildcardex" ref="B43:E47" totalsRowShown="0">
+  <autoFilter ref="B43:E47" xr:uid="{E77F1C2E-B24D-43B7-BE1A-BB92DDEC223D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1B781024-D9A8-4996-8BE5-CCF0BCC57DF7}" name="String"/>
+    <tableColumn id="2" xr3:uid="{786C6683-A52A-4DE0-999D-A0CE343757F8}" name="IF()">
+      <calculatedColumnFormula>IF(B44  = "*ow*", TRUE, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9ADF4641-AD96-48A2-AFD1-9109F782F60C}" name="COUNTIF()">
+      <calculatedColumnFormula>COUNTIF(B44, "*ow*")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{62BABC1C-6259-4F22-81B3-25712023DFC7}" name="IF(COUNTIF)">
+      <calculatedColumnFormula>IF(COUNTIF(B44,"*ow*"),TRUE,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10D013DD-5E24-4BEF-B467-2527A5E2FD9C}" name="ANDeg" displayName="ANDeg" ref="B2:E6" totalsRowShown="0">
   <autoFilter ref="B2:E6" xr:uid="{10D013DD-5E24-4BEF-B467-2527A5E2FD9C}"/>
@@ -856,8 +899,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2819F33B-68BC-45E4-B3BF-86BEC04262AC}" name="ERROReg" displayName="ERROReg" ref="B2:G8" totalsRowShown="0">
-  <autoFilter ref="B2:G8" xr:uid="{2819F33B-68BC-45E4-B3BF-86BEC04262AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2819F33B-68BC-45E4-B3BF-86BEC04262AC}" name="ERROReg" displayName="ERROReg" ref="B2:G7" totalsRowShown="0">
+  <autoFilter ref="B2:G7" xr:uid="{2819F33B-68BC-45E4-B3BF-86BEC04262AC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4EE23CB5-60D2-41BE-9DCC-EDD30BFD8BC7}" name="value"/>
     <tableColumn id="2" xr3:uid="{3054471D-E7CF-4A0C-9BAD-A8FCBE8A7E9D}" name="ISNA()">
@@ -1199,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC051803-C0A3-4D82-9BE5-B5D53FB5A24E}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1968,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C359290F-97BA-4938-A300-7DB4B3874E5D}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,11 +2048,11 @@
         <v>39</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C8" si="0">ISNA(B3)</f>
+        <f t="shared" ref="C3:C7" si="0">ISNA(B3)</f>
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D8" si="1">ISERROR(B3)</f>
+        <f t="shared" ref="D3:D7" si="1">ISERROR(B3)</f>
         <v>0</v>
       </c>
       <c r="E3" t="b">
@@ -2017,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F8" si="2">_xlfn.IFNA(B3, "This is an NA, take care!")</f>
+        <f t="shared" ref="F3:F7" si="2">_xlfn.IFNA(B3, "This is an NA, take care!")</f>
         <v>NA</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G8" si="3">IFERROR(B3, "Help, there's an error")</f>
+        <f t="shared" ref="G3:G7" si="3">IFERROR(B3, "Help, there's an error")</f>
         <v>NA</v>
       </c>
     </row>
@@ -2122,32 +2165,6 @@
       <c r="G7" t="str">
         <f t="shared" si="3"/>
         <v>Help, there's an error</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f ca="1">B8*2</f>
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <f ca="1">ISBLANK(ERROReg[[#This Row],[value]])</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NA</v>
       </c>
     </row>
   </sheetData>
@@ -2634,17 +2651,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FAB9AB-A287-4E63-937E-C690CE660694}">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
@@ -3072,15 +3090,98 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="b">
+        <f>IF(B44  = "*ow*", TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>COUNTIF(B44, "*ow*")</f>
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <f>IF(COUNTIF(B44,"*ow*"),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="b">
+        <f>IF(B45  = "*ow*", TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>COUNTIF(B45, "*ow*")</f>
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <f>IF(COUNTIF(B45,"*ow*"),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="b">
+        <f>IF(B46  = "*ow*", TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>COUNTIF(B46, "*ow*")</f>
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <f>IF(COUNTIF(B46,"*ow*"),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="b">
+        <f>IF(B47  = "*ow*", TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>COUNTIF(B47, "*ow*")</f>
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <f>IF(COUNTIF(B47,"*ow*"),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel/src/logic_in_excel_final.xlsx
+++ b/excel/src/logic_in_excel_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish-my.sharepoint.com/personal/brendan_clarke2_nes_scot_nhs_uk/Documents/projects/KIND resources/excel_logic/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="879" documentId="8_{9C7E987C-823A-4F68-A3BC-5308E1730B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9672CE38-28BF-4B87-9C29-0C384FAAFBDB}"/>
+  <xr:revisionPtr revIDLastSave="881" documentId="8_{9C7E987C-823A-4F68-A3BC-5308E1730B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F548E7F7-446D-4AD5-A2E2-6640CFCE6EE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" activeTab="7" xr2:uid="{462B433E-3A6E-446E-BD28-09DA4E5466BF}"/>
+    <workbookView xWindow="29850" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="6" xr2:uid="{462B433E-3A6E-446E-BD28-09DA4E5466BF}"/>
   </bookViews>
   <sheets>
     <sheet name="NOT" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="IFS" sheetId="8" r:id="rId4"/>
     <sheet name="IFNA, ISBLANK, IFERROR" sheetId="5" r:id="rId5"/>
     <sheet name="SUMIF, COUNTIF, SUMIFS" sheetId="4" r:id="rId6"/>
-    <sheet name="SUMIFS" sheetId="6" r:id="rId7"/>
-    <sheet name="Example applications" sheetId="9" r:id="rId8"/>
+    <sheet name="Example applications" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Cutoff">IF!$F$9</definedName>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>P</t>
   </si>
@@ -362,13 +361,19 @@
   </si>
   <si>
     <t>IF()</t>
+  </si>
+  <si>
+    <t>No CRD</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,12 +388,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -511,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -530,9 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,7 +1820,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,8 +1851,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
         <v>27</v>
@@ -1870,23 +1866,23 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(B5 = TRUE,"High",C5 = "CRD","High", D5 &gt; 20,"High", TRUE,"Low")</f>
-        <v>Low</v>
+        <v>High</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>98</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -1900,8 +1896,8 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>98</v>
       </c>
       <c r="D7">
         <v>26</v>
@@ -1915,23 +1911,23 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(B8 = TRUE,"High",C8 = "CRD","High", D8 &gt; 20,"High", TRUE,"Low")</f>
-        <v>Low</v>
+        <v>High</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>98</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1945,8 +1941,8 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>98</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -1960,8 +1956,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>98</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1975,23 +1971,23 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(B12 = TRUE,"High",C12 = "CRD","High", D12 &gt; 20,"High", TRUE,"Low")</f>
-        <v>Low</v>
+        <v>High</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>99</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2180,7 +2176,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,32 +2625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD823FE6-1503-45C0-9AA5-6486B47E9E66}">
-  <dimension ref="I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="9:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FAB9AB-A287-4E63-937E-C690CE660694}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
